--- a/Project_V/Assets/ExcelFiles/militaryrank.xlsx
+++ b/Project_V/Assets/ExcelFiles/militaryrank.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unityproject\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D906D53-815E-4478-A5AF-419E2CDE7B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34DC40D-1B0B-4D05-87C5-4A72BCA5832A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
+    <workbookView xWindow="2140" yWindow="5540" windowWidth="28800" windowHeight="15460" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
   <sheets>
     <sheet name="militaryrank" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Index</t>
   </si>
@@ -29,51 +37,59 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Private</t>
+    <t>Ratio</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Lance Corporal</t>
+    <t>상병</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Corporal</t>
+    <t>상등병</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Sergent</t>
+    <t>중사</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Staff Sergent</t>
+    <t>상사</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Warrant Officer Class 2</t>
+    <t>이등준위</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Warrant Officer Class 1</t>
+    <t>군수이등준위</t>
+  </si>
+  <si>
+    <t>일등준위</t>
+  </si>
+  <si>
+    <t>군수일등준위</t>
+  </si>
+  <si>
+    <t>육군주임준위</t>
+  </si>
+  <si>
+    <t>소위</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Conductor</t>
+    <t>중위</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Army Sergent Major</t>
+    <t>대위</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Second Lieutenant</t>
+    <t>소령</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Lieutenant</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Captain</t>
+    <t>중령</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -688,7 +704,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -696,6 +712,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1073,13 +1092,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F55DEE-F15F-4966-8E9E-BA70017D36A1}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
@@ -1087,112 +1106,174 @@
     <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
         <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project_V/Assets/ExcelFiles/militaryrank.xlsx
+++ b/Project_V/Assets/ExcelFiles/militaryrank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unityproject\Project_V\Project_V\Assets\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34DC40D-1B0B-4D05-87C5-4A72BCA5832A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F8A1EF-A72E-42FF-9B11-5781DB303805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="5540" windowWidth="28800" windowHeight="15460" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
+    <workbookView xWindow="7395" yWindow="915" windowWidth="19545" windowHeight="12240" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
   <sheets>
     <sheet name="militaryrank" sheetId="1" r:id="rId1"/>
@@ -41,10 +41,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>상병</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>상등병</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -90,6 +86,10 @@
   </si>
   <si>
     <t>중령</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이등병</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -704,7 +704,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -712,9 +712,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1095,10 +1092,10 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
@@ -1106,7 +1103,7 @@
     <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1117,155 +1114,155 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>15</v>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>16</v>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
